--- a/inst/models/damBreak.xlsx
+++ b/inst/models/damBreak.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="eqns" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,12 +46,21 @@
     <t xml:space="preserve">inflow</t>
   </si>
   <si>
+    <t xml:space="preserve">m³ / s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inflow to reservoir</t>
+  </si>
+  <si>
     <t xml:space="preserve">q_in</t>
   </si>
   <si>
     <t xml:space="preserve">flow_weir</t>
   </si>
   <si>
+    <t xml:space="preserve">controlled outflow over the weir structure</t>
+  </si>
+  <si>
     <t xml:space="preserve">overflow(mu, w_weir, V/area - h_weir)</t>
   </si>
   <si>
@@ -61,12 +70,21 @@
     <t xml:space="preserve">flow_crest</t>
   </si>
   <si>
+    <t xml:space="preserve">uncontrolled flow over the dam’s crest</t>
+  </si>
+  <si>
     <t xml:space="preserve">overflow(mu, w_crest, V/area - H_crest)</t>
   </si>
   <si>
     <t xml:space="preserve">erosion</t>
   </si>
   <si>
+    <t xml:space="preserve">m / s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erosion of the dam in response to uncontrolled overflow</t>
+  </si>
+  <si>
     <t xml:space="preserve">ke * max(0, V/area - H_crest) * H_crest</t>
   </si>
   <si>
@@ -131,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">ke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / m / s</t>
   </si>
   <si>
     <t xml:space="preserve">erosion rate constant</t>
@@ -369,13 +390,13 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.57"/>
   </cols>
@@ -405,8 +426,14 @@
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
@@ -414,37 +441,55 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,7 +526,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
@@ -499,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>9500000</v>
@@ -521,10 +566,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>10</v>
@@ -548,11 +593,11 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.75"/>
@@ -569,18 +614,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>1000000</v>
@@ -588,13 +633,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0.7</v>
@@ -602,13 +647,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>9</v>
@@ -616,13 +661,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>5</v>
@@ -630,13 +675,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>100</v>
@@ -644,13 +689,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>5</v>
@@ -658,13 +703,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -685,11 +733,11 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>
@@ -700,72 +748,72 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
